--- a/biology/Zoologie/Gymnothorax_rueppelliae/Gymnothorax_rueppelliae.xlsx
+++ b/biology/Zoologie/Gymnothorax_rueppelliae/Gymnothorax_rueppelliae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Murène à bandes brunes
-Gymnothorax rueppelliae communément appelé la Murène à bandes brunes[2],[3], est une espèce de murènes de la famille des Muraenidae qui se rencontre dans les récifs coralliens de l'océan Indien.
+Gymnothorax rueppelliae communément appelé la Murène à bandes brunes est une espèce de murènes de la famille des Muraenidae qui se rencontre dans les récifs coralliens de l'océan Indien.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Gymnothorax rueppelliae a été initialement décrite en 1844 par le médecin et naturaliste anglais John McClelland (1800-1883) sous le protonyme de Dalophis rüppelliae[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Gymnothorax rueppelliae a été initialement décrite en 1844 par le médecin et naturaliste anglais John McClelland (1800-1883) sous le protonyme de Dalophis rüppelliae.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce vit dans les eaux tropicales de l'océan Indien occidental, de la mer Rouge aux Maldives. Elle se rencontre notamment sur les pentes récifales jusqu'à 30 m de profondeur[5]. Elle vit dans les crevasses entre les coraux mais se montre parfois à découvert. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce vit dans les eaux tropicales de l'océan Indien occidental, de la mer Rouge aux Maldives. Elle se rencontre notamment sur les pentes récifales jusqu'à 30 m de profondeur. Elle vit dans les crevasses entre les coraux mais se montre parfois à découvert. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La peau de ce poisson est lisse et de couleur crème avec de larges bandes verticales sombres ; la tête est jaune citron sur sa partie supérieure. La nageoire dorsale est assez large et liserée de blanc. Sa taille maximale est d'environ 80 cm[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La peau de ce poisson est lisse et de couleur crème avec de larges bandes verticales sombres ; la tête est jaune citron sur sa partie supérieure. La nageoire dorsale est assez large et liserée de blanc. Sa taille maximale est d'environ 80 cm. 
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce prédateur nocturne chasse surtout des poissons et des crustacés[1]. C'est une espèce facilement nerveuse et potentiellement agressive, capable de mordre lorsqu'un humain l'importune trop[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce prédateur nocturne chasse surtout des poissons et des crustacés. C'est une espèce facilement nerveuse et potentiellement agressive, capable de mordre lorsqu'un humain l'importune trop.
 </t>
         </is>
       </c>
@@ -636,13 +656,15 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce présente de nombreux synonymes liés d'une part :
 à son classement successif dans différents genres ;
 à la graphie de son épithète spécifique ;
 au fait qu'elle a été décrite par plusieurs auteurs.
-Selon World Register of Marine Species                               (15 septembre 2021)[1] :
+Selon World Register of Marine Species                               (15 septembre 2021) :
 Dalophis rüppelliae McClelland, 1844
 Gymnothorax leucacme Jenkins, 1903
 Gymnothorax nubile (non Richardson, 1848)
@@ -693,9 +715,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, rueppelliae, lui a été donnée en l'honneur du naturaliste allemand Eduard Rüppell (1794-1884)[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, rueppelliae, lui a été donnée en l'honneur du naturaliste allemand Eduard Rüppell (1794-1884).
 </t>
         </is>
       </c>
@@ -724,7 +748,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>(en) J. McClelland, « Apodal fishes of Bengal », Calcutta Journal of Natural History and Miscellany of the Arts and Sciences in India, Calcutta, Inconnu, vol. 5, no 18,‎ juillet 1844, p. 151-226 (OCLC 7423165, lire en ligne)</t>
         </is>
